--- a/document/parts.xlsx
+++ b/document/parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\NyanTimer\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\NyanTimer\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A28B61-BB35-40AA-99CC-E9C57E96C1C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{72A28B61-BB35-40AA-99CC-E9C57E96C1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2479EDF-7C28-4B49-B683-EF7DBD492929}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61B38AC8-28B7-467B-AB5A-C8723770C29B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>NyanTimer 部品表</t>
     <rPh sb="10" eb="13">
@@ -103,17 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>セラロック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>16MHz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-09576/</t>
-  </si>
-  <si>
     <t>電池ボックス</t>
     <rPh sb="0" eb="2">
       <t>デンチ</t>
@@ -266,6 +255,30 @@
       <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.22u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推奨発振子</t>
+    <rPh sb="0" eb="2">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16MHz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-08671/</t>
   </si>
 </sst>
 </file>
@@ -629,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1244524C-086B-41B1-B2CD-FBB1AC689235}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -658,13 +671,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -699,23 +712,23 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" si="0">E3*F3</f>
-        <v>35</v>
+        <f>E3*F3</f>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -735,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G18" si="0">E4*F4</f>
         <v>450</v>
       </c>
       <c r="H4" t="s">
@@ -747,10 +760,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -763,7 +776,7 @@
         <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -771,10 +784,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -787,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -795,10 +808,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -811,7 +824,7 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -819,10 +832,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>450</v>
@@ -835,7 +848,7 @@
         <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -843,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -856,7 +869,7 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -864,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -880,7 +893,7 @@
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -888,10 +901,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -904,7 +917,7 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -912,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -925,7 +938,7 @@
         <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -933,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -946,7 +959,7 @@
         <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -954,10 +967,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -975,10 +988,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -996,10 +1009,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1017,10 +1030,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -1038,10 +1051,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -1059,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -1080,23 +1093,44 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
       </c>
       <c r="E20">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
         <f>E20*F20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>260</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f>E21*F21</f>
         <v>520</v>
       </c>
-      <c r="H20" t="s">
-        <v>49</v>
+      <c r="H21" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
